--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07487600000000001</v>
+        <v>0.119248</v>
       </c>
       <c r="H2">
-        <v>0.224628</v>
+        <v>0.357744</v>
       </c>
       <c r="I2">
-        <v>0.05341789081279245</v>
+        <v>0.08246323841276983</v>
       </c>
       <c r="J2">
-        <v>0.05341789081279245</v>
+        <v>0.08246323841276984</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.001464</v>
+        <v>0.04440366666666667</v>
       </c>
       <c r="N2">
-        <v>0.004392</v>
+        <v>0.133211</v>
       </c>
       <c r="O2">
-        <v>0.01699683824753</v>
+        <v>0.3440189039822324</v>
       </c>
       <c r="P2">
-        <v>0.01699683824753</v>
+        <v>0.3440189039822324</v>
       </c>
       <c r="Q2">
-        <v>0.000109618464</v>
+        <v>0.005295048442666666</v>
       </c>
       <c r="R2">
-        <v>0.0009865661760000001</v>
+        <v>0.047655435984</v>
       </c>
       <c r="S2">
-        <v>0.0009079352496692524</v>
+        <v>0.02836891289758661</v>
       </c>
       <c r="T2">
-        <v>0.0009079352496692523</v>
+        <v>0.02836891289758661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07487600000000001</v>
+        <v>0.119248</v>
       </c>
       <c r="H3">
-        <v>0.224628</v>
+        <v>0.357744</v>
       </c>
       <c r="I3">
-        <v>0.05341789081279245</v>
+        <v>0.08246323841276983</v>
       </c>
       <c r="J3">
-        <v>0.05341789081279245</v>
+        <v>0.08246323841276984</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,25 +617,25 @@
         <v>0.016568</v>
       </c>
       <c r="N3">
-        <v>0.04970400000000001</v>
+        <v>0.049704</v>
       </c>
       <c r="O3">
-        <v>0.1923521967794243</v>
+        <v>0.1283611383709519</v>
       </c>
       <c r="P3">
-        <v>0.1923521967794243</v>
+        <v>0.1283611383709519</v>
       </c>
       <c r="Q3">
-        <v>0.001240545568</v>
+        <v>0.001975700864</v>
       </c>
       <c r="R3">
-        <v>0.011164910112</v>
+        <v>0.017781307776</v>
       </c>
       <c r="S3">
-        <v>0.01027504864516405</v>
+        <v>0.01058507515641834</v>
       </c>
       <c r="T3">
-        <v>0.01027504864516405</v>
+        <v>0.01058507515641834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07487600000000001</v>
+        <v>0.119248</v>
       </c>
       <c r="H4">
-        <v>0.224628</v>
+        <v>0.357744</v>
       </c>
       <c r="I4">
-        <v>0.05341789081279245</v>
+        <v>0.08246323841276983</v>
       </c>
       <c r="J4">
-        <v>0.05341789081279245</v>
+        <v>0.08246323841276984</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.204305</v>
       </c>
       <c r="O4">
-        <v>0.7906509649730457</v>
+        <v>0.5276199576468158</v>
       </c>
       <c r="P4">
-        <v>0.7906509649730458</v>
+        <v>0.5276199576468157</v>
       </c>
       <c r="Q4">
-        <v>0.005099180393333334</v>
+        <v>0.008120987546666665</v>
       </c>
       <c r="R4">
-        <v>0.04589262354</v>
+        <v>0.07308888791999998</v>
       </c>
       <c r="S4">
-        <v>0.04223490691795914</v>
+        <v>0.04350925035876489</v>
       </c>
       <c r="T4">
-        <v>0.04223490691795914</v>
+        <v>0.04350925035876489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.35415</v>
       </c>
       <c r="I5">
-        <v>0.7976370642561381</v>
+        <v>0.7731620128421216</v>
       </c>
       <c r="J5">
-        <v>0.797637064256138</v>
+        <v>0.7731620128421216</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.001464</v>
+        <v>0.04440366666666667</v>
       </c>
       <c r="N5">
-        <v>0.004392</v>
+        <v>0.133211</v>
       </c>
       <c r="O5">
-        <v>0.01699683824753</v>
+        <v>0.3440189039822324</v>
       </c>
       <c r="P5">
-        <v>0.01699683824753</v>
+        <v>0.3440189039822324</v>
       </c>
       <c r="Q5">
-        <v>0.0016368252</v>
+        <v>0.04964551951666667</v>
       </c>
       <c r="R5">
-        <v>0.0147314268</v>
+        <v>0.4468096756500001</v>
       </c>
       <c r="S5">
-        <v>0.01355730816139628</v>
+        <v>0.2659823482586434</v>
       </c>
       <c r="T5">
-        <v>0.01355730816139627</v>
+        <v>0.2659823482586434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.35415</v>
       </c>
       <c r="I6">
-        <v>0.7976370642561381</v>
+        <v>0.7731620128421216</v>
       </c>
       <c r="J6">
-        <v>0.797637064256138</v>
+        <v>0.7731620128421216</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,13 +803,13 @@
         <v>0.016568</v>
       </c>
       <c r="N6">
-        <v>0.04970400000000001</v>
+        <v>0.049704</v>
       </c>
       <c r="O6">
-        <v>0.1923521967794243</v>
+        <v>0.1283611383709519</v>
       </c>
       <c r="P6">
-        <v>0.1923521967794243</v>
+        <v>0.1283611383709519</v>
       </c>
       <c r="Q6">
         <v>0.0185238524</v>
@@ -818,10 +818,10 @@
         <v>0.1667146716</v>
       </c>
       <c r="S6">
-        <v>0.153427241542359</v>
+        <v>0.09924395611359128</v>
       </c>
       <c r="T6">
-        <v>0.1534272415423589</v>
+        <v>0.09924395611359126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.35415</v>
       </c>
       <c r="I7">
-        <v>0.7976370642561381</v>
+        <v>0.7731620128421216</v>
       </c>
       <c r="J7">
-        <v>0.797637064256138</v>
+        <v>0.7731620128421216</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>0.204305</v>
       </c>
       <c r="O7">
-        <v>0.7906509649730457</v>
+        <v>0.5276199576468158</v>
       </c>
       <c r="P7">
-        <v>0.7906509649730458</v>
+        <v>0.5276199576468157</v>
       </c>
       <c r="Q7">
         <v>0.07614106841666665</v>
       </c>
       <c r="R7">
-        <v>0.68526961575</v>
+        <v>0.6852696157499999</v>
       </c>
       <c r="S7">
-        <v>0.6306525145523828</v>
+        <v>0.407935708469887</v>
       </c>
       <c r="T7">
-        <v>0.6306525145523828</v>
+        <v>0.407935708469887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.6263300000000001</v>
       </c>
       <c r="I8">
-        <v>0.1489450449310696</v>
+        <v>0.1443747487451086</v>
       </c>
       <c r="J8">
-        <v>0.1489450449310696</v>
+        <v>0.1443747487451086</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.001464</v>
+        <v>0.04440366666666667</v>
       </c>
       <c r="N8">
-        <v>0.004392</v>
+        <v>0.133211</v>
       </c>
       <c r="O8">
-        <v>0.01699683824753</v>
+        <v>0.3440189039822324</v>
       </c>
       <c r="P8">
-        <v>0.01699683824753</v>
+        <v>0.3440189039822324</v>
       </c>
       <c r="Q8">
-        <v>0.0003056490400000001</v>
+        <v>0.009270449514444447</v>
       </c>
       <c r="R8">
-        <v>0.00275084136</v>
+        <v>0.08343404563000002</v>
       </c>
       <c r="S8">
-        <v>0.002531594836464478</v>
+        <v>0.04966764282600245</v>
       </c>
       <c r="T8">
-        <v>0.002531594836464478</v>
+        <v>0.04966764282600246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.6263300000000001</v>
       </c>
       <c r="I9">
-        <v>0.1489450449310696</v>
+        <v>0.1443747487451086</v>
       </c>
       <c r="J9">
-        <v>0.1489450449310696</v>
+        <v>0.1443747487451086</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,13 +989,13 @@
         <v>0.016568</v>
       </c>
       <c r="N9">
-        <v>0.04970400000000001</v>
+        <v>0.049704</v>
       </c>
       <c r="O9">
-        <v>0.1923521967794243</v>
+        <v>0.1283611383709519</v>
       </c>
       <c r="P9">
-        <v>0.1923521967794243</v>
+        <v>0.1283611383709519</v>
       </c>
       <c r="Q9">
         <v>0.003459011813333334</v>
@@ -1004,10 +1004,10 @@
         <v>0.03113110632</v>
       </c>
       <c r="S9">
-        <v>0.02864990659190129</v>
+        <v>0.0185321071009423</v>
       </c>
       <c r="T9">
-        <v>0.02864990659190128</v>
+        <v>0.0185321071009423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.6263300000000001</v>
       </c>
       <c r="I10">
-        <v>0.1489450449310696</v>
+        <v>0.1443747487451086</v>
       </c>
       <c r="J10">
-        <v>0.1489450449310696</v>
+        <v>0.1443747487451086</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>0.204305</v>
       </c>
       <c r="O10">
-        <v>0.7906509649730457</v>
+        <v>0.5276199576468158</v>
       </c>
       <c r="P10">
-        <v>0.7906509649730458</v>
+        <v>0.5276199576468157</v>
       </c>
       <c r="Q10">
         <v>0.01421803896111111</v>
@@ -1066,10 +1066,10 @@
         <v>0.12796235065</v>
       </c>
       <c r="S10">
-        <v>0.1177635435027038</v>
+        <v>0.07617499881816388</v>
       </c>
       <c r="T10">
-        <v>0.1177635435027038</v>
+        <v>0.07617499881816388</v>
       </c>
     </row>
   </sheetData>
